--- a/training-jxls-sf/src/main/resources/order.xlsx
+++ b/training-jxls-sf/src/main/resources/order.xlsx
@@ -15,48 +15,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:area(lastCell="G15")
-jx:each(items="orders", var="order", lastCell="G11")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:each(items="order.goodsList" var="item" lastCell="G7")</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
   <si>
     <t>序号</t>
   </si>
@@ -246,31 +206,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${item.salesAttr}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.goodsBrand}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.unitPrice}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${order.receiver}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.goodsTotalNumber}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.goodsTotalPrice}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${item.goodsName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${item.salesAttr}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.goodsBrand}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.unitPrice}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${order.receiver}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.goodsTotalNumber}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.goodsTotalPrice}</t>
+    <t>${status.index+1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${orders}" var="order" varStatus="status"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${order.goodsList}" var="item" varStatus="status"&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +256,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,21 +271,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -320,7 +280,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -380,11 +340,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -425,9 +409,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,6 +430,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,11 +735,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -754,37 +752,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="11" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="12"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -794,10 +784,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -807,130 +797,180 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="12"/>
       <c r="F5" s="18"/>
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E9" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="A10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="1"/>
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="14"/>
+      <c r="A11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="1"/>
       <c r="G11" s="14"/>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -957,10 +997,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
@@ -1190,11 +1230,11 @@
         <v>32</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="1">
         <f>SUM(F7:F10)</f>
         <v>8</v>
@@ -1233,10 +1273,10 @@
       <c r="G14" s="14"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="11" t="s">
         <v>5</v>
       </c>
@@ -1436,11 +1476,11 @@
         <v>32</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="1">
         <f>SUM(F22:F25)</f>
         <v>8</v>
@@ -1510,10 +1550,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
@@ -1713,11 +1753,11 @@
         <v>32</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="1">
         <f>SUM(F7:F10)</f>
         <v>8</v>
